--- a/MMS/Regression/build 10.xlsx
+++ b/MMS/Regression/build 10.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>write new bug for message for auto "This monitor will be linked to QR:0"</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>yet to test</t>
   </si>
 </sst>
 </file>
@@ -849,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,42 +881,66 @@
       <c r="A2">
         <v>1879</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1876</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1875</v>
       </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1872</v>
       </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1871</v>
       </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1866</v>
       </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1861</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="K8" s="2"/>
     </row>
@@ -912,6 +948,9 @@
       <c r="A9">
         <v>1860</v>
       </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="K9" s="2"/>
     </row>
@@ -919,6 +958,9 @@
       <c r="A10">
         <v>1852</v>
       </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="K10" s="2"/>
@@ -927,6 +969,9 @@
       <c r="A11">
         <v>1847</v>
       </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="K11" s="2"/>
     </row>
@@ -934,18 +979,27 @@
       <c r="A12">
         <v>1842</v>
       </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1829</v>
       </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1772</v>
       </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
@@ -953,19 +1007,44 @@
       <c r="A15">
         <v>1700</v>
       </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1691</v>
       </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1688</v>
       </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
       <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1877</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1704</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MMS/Regression/build 10.xlsx
+++ b/MMS/Regression/build 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -861,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1046,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1830</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
